--- a/res/dataTheRun.xlsx
+++ b/res/dataTheRun.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19392" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19392" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Teams" sheetId="2" r:id="rId1"/>
+    <sheet name="dataTheRunTeam" sheetId="2" r:id="rId1"/>
     <sheet name="Legs" sheetId="3" r:id="rId2"/>
     <sheet name="Gula" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>THE RUN MARATHON 12M - FULL</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Kategoria</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
     <t>číslo etapy</t>
   </si>
   <si>
@@ -377,6 +374,12 @@
   </si>
   <si>
     <t>Janka Bálintová</t>
+  </si>
+  <si>
+    <t>Start KE</t>
+  </si>
+  <si>
+    <t>Start Teplicka</t>
   </si>
 </sst>
 </file>
@@ -1036,20 +1039,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1057,13 +1060,16 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1073,11 +1079,14 @@
       <c r="C2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1087,11 +1096,14 @@
       <c r="C3" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1101,11 +1113,14 @@
       <c r="C4" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1115,11 +1130,14 @@
       <c r="C5" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1129,11 +1147,14 @@
       <c r="C6" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1143,11 +1164,14 @@
       <c r="C7" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1157,25 +1181,31 @@
       <c r="C8" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1185,11 +1215,14 @@
       <c r="C10" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1199,11 +1232,14 @@
       <c r="C11" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1213,11 +1249,14 @@
       <c r="C12" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1227,11 +1266,14 @@
       <c r="C13" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1241,11 +1283,14 @@
       <c r="C14" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1255,11 +1300,14 @@
       <c r="C15" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1269,11 +1317,14 @@
       <c r="C16" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1283,11 +1334,14 @@
       <c r="C17" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1297,11 +1351,14 @@
       <c r="C18" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1311,11 +1368,14 @@
       <c r="C19" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1325,11 +1385,14 @@
       <c r="C20" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1339,11 +1402,14 @@
       <c r="C21" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1353,11 +1419,14 @@
       <c r="C22" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1367,11 +1436,14 @@
       <c r="C23" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1381,11 +1453,14 @@
       <c r="C24" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1395,11 +1470,14 @@
       <c r="C25" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1409,11 +1487,14 @@
       <c r="C26" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1423,11 +1504,14 @@
       <c r="C27" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1437,11 +1521,14 @@
       <c r="C28" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1451,13 +1538,16 @@
       <c r="C29" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>32</v>
@@ -1465,11 +1555,14 @@
       <c r="C30" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1479,11 +1572,14 @@
       <c r="C31" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1493,11 +1589,14 @@
       <c r="C32" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1507,11 +1606,14 @@
       <c r="C33" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1521,11 +1623,14 @@
       <c r="C34" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1535,11 +1640,14 @@
       <c r="C35" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1549,11 +1657,14 @@
       <c r="C36" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1563,11 +1674,14 @@
       <c r="C37" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1577,11 +1691,14 @@
       <c r="C38" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1591,7 +1708,10 @@
       <c r="C39" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1605,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1617,22 +1737,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -1640,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="D2" s="31">
         <v>10.74</v>
@@ -1660,10 +1780,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="31">
         <v>14.6</v>
@@ -1680,10 +1800,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="31">
         <v>8.66</v>
@@ -1700,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="31">
         <v>11.47</v>
@@ -1720,10 +1840,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="31">
         <v>9.4700000000000006</v>
@@ -1740,10 +1860,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="31">
         <v>12.8</v>
@@ -1760,10 +1880,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="31">
         <v>7.17</v>
@@ -1780,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="31">
         <v>14.86</v>
@@ -1800,10 +1920,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="D10" s="31">
         <v>10.02</v>
@@ -1820,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>66</v>
       </c>
       <c r="D11" s="31">
         <v>6.75</v>
@@ -1840,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="31">
         <v>8.93</v>
@@ -1860,10 +1980,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="31">
         <v>8.76</v>
@@ -1880,10 +2000,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>69</v>
       </c>
       <c r="D14" s="31">
         <v>10.18</v>
@@ -1900,10 +2020,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>70</v>
       </c>
       <c r="D15" s="31">
         <v>10.27</v>
@@ -1920,10 +2040,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="31">
         <v>11.28</v>
@@ -1940,10 +2060,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="31">
         <v>12.39</v>
@@ -1960,10 +2080,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="31">
         <v>11.03</v>
@@ -1980,10 +2100,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="31">
         <v>8.93</v>
@@ -2000,10 +2120,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="D20" s="31">
         <v>10.55</v>
@@ -2020,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="D21" s="31">
         <v>8.67</v>
@@ -2040,10 +2160,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="31">
         <v>9</v>
@@ -2060,10 +2180,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="31">
         <v>12.02</v>
@@ -2080,10 +2200,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>79</v>
       </c>
       <c r="D24" s="31">
         <v>10.44</v>
@@ -2100,10 +2220,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>80</v>
       </c>
       <c r="D25" s="31">
         <v>10.220000000000001</v>
@@ -2120,10 +2240,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="31">
         <v>10.76</v>
@@ -2140,10 +2260,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="D27" s="31">
         <v>10.47</v>
@@ -2160,10 +2280,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>83</v>
       </c>
       <c r="D28" s="31">
         <v>11.61</v>
@@ -2180,10 +2300,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>84</v>
       </c>
       <c r="D29" s="31">
         <v>6.95</v>
@@ -2200,10 +2320,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>85</v>
       </c>
       <c r="D30" s="31">
         <v>11.06</v>
@@ -2220,10 +2340,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>86</v>
       </c>
       <c r="D31" s="31">
         <v>10.72</v>
@@ -2240,10 +2360,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>87</v>
       </c>
       <c r="D32" s="31">
         <v>12.08</v>
@@ -2260,10 +2380,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="D33" s="31">
         <v>10.19</v>
@@ -2280,10 +2400,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>89</v>
       </c>
       <c r="D34" s="31">
         <v>11.36</v>
@@ -2300,10 +2420,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="31">
         <v>14.36</v>
@@ -2320,10 +2440,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="D36" s="31">
         <v>12.64</v>
@@ -2340,10 +2460,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>92</v>
       </c>
       <c r="D37" s="31">
         <v>12.6</v>
@@ -2360,10 +2480,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="D38" s="31">
         <v>11.43</v>
@@ -2380,10 +2500,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>94</v>
       </c>
       <c r="D39" s="31">
         <v>10.88</v>
@@ -2400,10 +2520,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="D40" s="31">
         <v>9.69</v>
@@ -2420,10 +2540,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="D41" s="31">
         <v>12.74</v>
@@ -2440,10 +2560,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="D42" s="31">
         <v>12.05</v>
@@ -2460,10 +2580,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>98</v>
       </c>
       <c r="D43" s="31">
         <v>12.69</v>
@@ -2480,10 +2600,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="31">
         <v>12.9</v>
@@ -2500,10 +2620,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="D45" s="31">
         <v>12.6</v>
@@ -2520,10 +2640,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>101</v>
       </c>
       <c r="D46" s="31">
         <v>12.31</v>
@@ -2540,10 +2660,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>101</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>102</v>
       </c>
       <c r="D47" s="31">
         <v>11.62</v>
@@ -2560,10 +2680,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="D48" s="31">
         <v>9.5399999999999991</v>
@@ -2580,10 +2700,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>103</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>104</v>
       </c>
       <c r="D49" s="31">
         <v>6.26</v>
@@ -10207,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="37">
         <v>0.39583333333333331</v>
@@ -10227,7 +10347,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="43">
         <v>0.43810185185185185</v>
@@ -10247,7 +10367,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="43">
         <v>0.48880787037037038</v>
@@ -10267,7 +10387,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="43">
         <v>0.52290509259259255</v>
@@ -10287,7 +10407,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="43">
         <v>0.57070601851851854</v>
@@ -10307,7 +10427,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="43">
         <v>0.60359953703703706</v>
@@ -10327,7 +10447,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="43">
         <v>0.64508101851851851</v>
@@ -10347,7 +10467,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="43">
         <v>0.67496527777777782</v>
@@ -10367,7 +10487,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="43">
         <v>0.73429398148148151</v>
@@ -10387,7 +10507,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="43">
         <v>0.76733796296296297</v>
@@ -10407,7 +10527,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="43">
         <v>0.79233796296296299</v>
@@ -10427,7 +10547,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="43">
         <v>0.82644675925925926</v>
@@ -10447,7 +10567,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43">
         <v>0.86194444444444451</v>
@@ -10467,7 +10587,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="43">
         <v>0.90201388888888889</v>
@@ -10487,7 +10607,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="43">
         <v>0.93769675925925933</v>
@@ -10507,7 +10627,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="43">
         <v>0.98208333333333331</v>
@@ -10527,7 +10647,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="43">
         <v>3.3726851851851855E-2</v>
@@ -10547,7 +10667,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="43">
         <v>7.2025462962962958E-2</v>
@@ -10567,7 +10687,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="43">
         <v>0.10096064814814815</v>
@@ -10587,7 +10707,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="43">
         <v>0.14493055555555556</v>
@@ -10607,7 +10727,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="43">
         <v>0.17957175925925925</v>
@@ -10627,7 +10747,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="43">
         <v>0.20927083333333332</v>
@@ -10647,7 +10767,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="43">
         <v>0.25377314814814816</v>
@@ -10667,7 +10787,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="43">
         <v>0.29364583333333333</v>
@@ -10687,7 +10807,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="43">
         <v>0.33504629629629629</v>
@@ -10707,7 +10827,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="43">
         <v>0.37738425925925928</v>
@@ -10727,7 +10847,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="43">
         <v>0.41375000000000001</v>
@@ -10747,7 +10867,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="43">
         <v>0.45943287037037034</v>
@@ -10767,7 +10887,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="43">
         <v>0.48837962962962966</v>
@@ -10787,7 +10907,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="43">
         <v>0.52678240740740734</v>
@@ -10807,7 +10927,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="43">
         <v>0.5615162037037037</v>
@@ -10827,7 +10947,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="43">
         <v>0.61184027777777772</v>
@@ -10847,7 +10967,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="43">
         <v>0.65251157407407401</v>
@@ -10867,7 +10987,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="43">
         <v>0.69</v>
@@ -10887,7 +11007,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="43">
         <v>0.74319444444444438</v>
@@ -10907,7 +11027,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="43">
         <v>0.79145833333333337</v>
@@ -10927,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="43">
         <v>0.84249999999999992</v>
@@ -10947,7 +11067,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="43">
         <v>0.88747685185185177</v>
@@ -10967,7 +11087,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="43">
         <v>0.92524305555555564</v>
@@ -10987,7 +11107,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="43">
         <v>0.96337962962962964</v>
@@ -11007,7 +11127,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="43">
         <v>1.6481481481481482E-2</v>
@@ -11027,7 +11147,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="43">
         <v>5.8310185185185187E-2</v>
@@ -11047,7 +11167,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="43">
         <v>9.9432870370370366E-2</v>
@@ -11067,7 +11187,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="43">
         <v>0.15317129629629631</v>
@@ -11087,7 +11207,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="43">
         <v>0.20347222222222219</v>
@@ -11107,7 +11227,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="43">
         <v>0.24406249999999999</v>
@@ -11127,7 +11247,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="43">
         <v>0.2870949074074074</v>
@@ -11147,7 +11267,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="43">
         <v>0.32354166666666667</v>

--- a/res/dataTheRun.xlsx
+++ b/res/dataTheRun.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_src\gambo2\gambo.runbot\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_src\gambo2\gambo\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19392" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19128" windowHeight="7524" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dataTheRunTeam" sheetId="2" r:id="rId1"/>
     <sheet name="Legs" sheetId="3" r:id="rId2"/>
     <sheet name="Gula" sheetId="4" r:id="rId3"/>
+    <sheet name="dataTheRunGula" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="119">
   <si>
     <t>THE RUN MARATHON 12M - FULL</t>
   </si>
@@ -380,6 +381,9 @@
   </si>
   <si>
     <t>Start Teplicka</t>
+  </si>
+  <si>
+    <t>Maťa Hancková</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -11286,4 +11290,980 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="37">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D1" s="38">
+        <v>10.74</v>
+      </c>
+      <c r="E1" s="39">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F1" s="40">
+        <v>3.9780092592592589E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="43">
+        <v>0.43561342592592595</v>
+      </c>
+      <c r="D2" s="44">
+        <v>14.6</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F2" s="43">
+        <v>5.5775462962962964E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41">
+        <v>3</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0.49138888888888888</v>
+      </c>
+      <c r="D3" s="44">
+        <v>8.66</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F3" s="43">
+        <v>3.4097222222222223E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41">
+        <v>4</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.5254861111111111</v>
+      </c>
+      <c r="D4" s="44">
+        <v>11.47</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F4" s="43">
+        <v>4.6481481481481485E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.57196759259259256</v>
+      </c>
+      <c r="D5" s="44">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F5" s="43">
+        <v>3.5081018518518518E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="41">
+        <v>6</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0.60704861111111108</v>
+      </c>
+      <c r="D6" s="44">
+        <v>12.8</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F6" s="43">
+        <v>4.148148148148148E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41">
+        <v>7</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.64851851851851849</v>
+      </c>
+      <c r="D7" s="44">
+        <v>7.17</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="43">
+        <v>2.988425925925926E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.67841435185185184</v>
+      </c>
+      <c r="D8" s="44">
+        <v>14.86</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F8" s="43">
+        <v>5.9340277777777777E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="41">
+        <v>9</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0.73774305555555564</v>
+      </c>
+      <c r="D9" s="44">
+        <v>10.02</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F9" s="43">
+        <v>3.9988425925925927E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41">
+        <v>10</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="43">
+        <v>0.77774305555555545</v>
+      </c>
+      <c r="D10" s="44">
+        <v>6.75</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F10" s="43">
+        <v>2.34375E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41">
+        <v>11</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0.80118055555555545</v>
+      </c>
+      <c r="D11" s="44">
+        <v>8.93</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F11" s="43">
+        <v>3.4108796296296297E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41">
+        <v>12</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="43">
+        <v>0.83528935185185194</v>
+      </c>
+      <c r="D12" s="44">
+        <v>8.76</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F12" s="43">
+        <v>4.2592592592592592E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41">
+        <v>13</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="43">
+        <v>0.87788194444444445</v>
+      </c>
+      <c r="D13" s="44">
+        <v>10.18</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F13" s="43">
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41">
+        <v>14</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0.91678240740740735</v>
+      </c>
+      <c r="D14" s="44">
+        <v>10.27</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F14" s="43">
+        <v>3.9247685185185184E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41">
+        <v>15</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="43">
+        <v>0.95601851851851849</v>
+      </c>
+      <c r="D15" s="44">
+        <v>11.28</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F15" s="43">
+        <v>4.3090277777777776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="43">
+        <v>0.99910879629629623</v>
+      </c>
+      <c r="D16" s="44">
+        <v>12.39</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F16" s="43">
+        <v>4.9490740740740745E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41">
+        <v>17</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="43">
+        <v>4.8599537037037038E-2</v>
+      </c>
+      <c r="D17" s="44">
+        <v>11.03</v>
+      </c>
+      <c r="E17" s="45">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="F17" s="43">
+        <v>3.7662037037037036E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41">
+        <v>18</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="43">
+        <v>8.6261574074074074E-2</v>
+      </c>
+      <c r="D18" s="44">
+        <v>8.93</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F18" s="43">
+        <v>2.8935185185185185E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41">
+        <v>19</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="43">
+        <v>0.11519675925925926</v>
+      </c>
+      <c r="D19" s="44">
+        <v>10.55</v>
+      </c>
+      <c r="E19" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="43">
+        <v>4.3969907407407409E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41">
+        <v>20</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="43">
+        <v>0.15916666666666668</v>
+      </c>
+      <c r="D20" s="44">
+        <v>8.67</v>
+      </c>
+      <c r="E20" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F20" s="43">
+        <v>3.4641203703703702E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="41">
+        <v>21</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="43">
+        <v>0.19380787037037037</v>
+      </c>
+      <c r="D21" s="44">
+        <v>9</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.21875</v>
+      </c>
+      <c r="F21" s="43">
+        <v>3.2824074074074075E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41">
+        <v>22</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0.22663194444444446</v>
+      </c>
+      <c r="D22" s="44">
+        <v>12.02</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F22" s="43">
+        <v>4.311342592592593E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41">
+        <v>23</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0.26973379629629629</v>
+      </c>
+      <c r="D23" s="44">
+        <v>10.44</v>
+      </c>
+      <c r="E23" s="45">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F23" s="43">
+        <v>3.8668981481481478E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41">
+        <v>24</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="43">
+        <v>0.30840277777777775</v>
+      </c>
+      <c r="D24" s="44">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F24" s="43">
+        <v>4.1400462962962965E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="41">
+        <v>25</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="43">
+        <v>0.3498148148148148</v>
+      </c>
+      <c r="D25" s="44">
+        <v>10.76</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F25" s="43">
+        <v>4.1087962962962958E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="41">
+        <v>26</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0.39089120370370373</v>
+      </c>
+      <c r="D26" s="44">
+        <v>10.47</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F26" s="43">
+        <v>4.0011574074074074E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="41">
+        <v>27</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0.4309027777777778</v>
+      </c>
+      <c r="D27" s="44">
+        <v>11.61</v>
+      </c>
+      <c r="E27" s="45">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F27" s="43">
+        <v>4.5011574074074072E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="41">
+        <v>28</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="43">
+        <v>0.47591435185185182</v>
+      </c>
+      <c r="D28" s="44">
+        <v>6.95</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F28" s="43">
+        <v>2.7731481481481478E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="41">
+        <v>29</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="43">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D29" s="44">
+        <v>11.06</v>
+      </c>
+      <c r="E29" s="45">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F29" s="43">
+        <v>4.0960648148148149E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="41">
+        <v>30</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="43">
+        <v>0.74929398148148152</v>
+      </c>
+      <c r="D30" s="44">
+        <v>10.72</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F30" s="43">
+        <v>3.4733796296296297E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="41">
+        <v>31</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="43">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D31" s="44">
+        <v>12.08</v>
+      </c>
+      <c r="E31" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="43">
+        <v>5.0324074074074077E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="41">
+        <v>32</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="43">
+        <v>0.8343518518518519</v>
+      </c>
+      <c r="D32" s="44">
+        <v>10.19</v>
+      </c>
+      <c r="E32" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F32" s="43">
+        <v>4.0682870370370376E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="41">
+        <v>33</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="43">
+        <v>0.87503472222222223</v>
+      </c>
+      <c r="D33" s="44">
+        <v>11.36</v>
+      </c>
+      <c r="E33" s="45">
+        <v>0.21875</v>
+      </c>
+      <c r="F33" s="43">
+        <v>4.1423611111111112E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="41">
+        <v>34</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="43">
+        <v>0.91645833333333337</v>
+      </c>
+      <c r="D34" s="44">
+        <v>14.36</v>
+      </c>
+      <c r="E34" s="45">
+        <v>0.21875</v>
+      </c>
+      <c r="F34" s="43">
+        <v>5.2361111111111108E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="41">
+        <v>35</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="43">
+        <v>0.96881944444444434</v>
+      </c>
+      <c r="D35" s="44">
+        <v>12.64</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F35" s="43">
+        <v>4.6805555555555552E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="41">
+        <v>36</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="43">
+        <v>1.5636574074074074E-2</v>
+      </c>
+      <c r="D36" s="44">
+        <v>12.6</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="43">
+        <v>5.2488425925925924E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="41">
+        <v>37</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="43">
+        <v>6.8125000000000005E-2</v>
+      </c>
+      <c r="D37" s="44">
+        <v>11.43</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F37" s="43">
+        <v>4.2337962962962966E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="41">
+        <v>38</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="43">
+        <v>0.11046296296296297</v>
+      </c>
+      <c r="D38" s="44">
+        <v>10.88</v>
+      </c>
+      <c r="E38" s="45">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F38" s="43">
+        <v>4.1539351851851855E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="41">
+        <v>39</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="43">
+        <v>0.15200231481481483</v>
+      </c>
+      <c r="D39" s="44">
+        <v>9.69</v>
+      </c>
+      <c r="E39" s="45">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F39" s="43">
+        <v>3.8136574074074073E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="41">
+        <v>40</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="43">
+        <v>0.19013888888888889</v>
+      </c>
+      <c r="D40" s="44">
+        <v>12.74</v>
+      </c>
+      <c r="E40" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F40" s="43">
+        <v>5.0891203703703702E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="43">
+        <v>0.24101851851851852</v>
+      </c>
+      <c r="D41" s="44">
+        <v>12.05</v>
+      </c>
+      <c r="E41" s="45">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F41" s="43">
+        <v>4.462962962962963E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="41">
+        <v>42</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="43">
+        <v>0.28564814814814815</v>
+      </c>
+      <c r="D42" s="44">
+        <v>12.69</v>
+      </c>
+      <c r="E42" s="45">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F42" s="43">
+        <v>4.1122685185185186E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="41">
+        <v>43</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="43">
+        <v>0.32677083333333334</v>
+      </c>
+      <c r="D43" s="44">
+        <v>12.9</v>
+      </c>
+      <c r="E43" s="45">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F43" s="43">
+        <v>5.8217592592592592E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="41">
+        <v>44</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="43">
+        <v>0.38497685185185188</v>
+      </c>
+      <c r="D44" s="44">
+        <v>12.6</v>
+      </c>
+      <c r="E44" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F44" s="43">
+        <v>5.0312500000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="41">
+        <v>45</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="43">
+        <v>0.43528935185185186</v>
+      </c>
+      <c r="D45" s="44">
+        <v>12.31</v>
+      </c>
+      <c r="E45" s="45">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F45" s="43">
+        <v>4.9131944444444443E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="41">
+        <v>46</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="43">
+        <v>0.48442129629629632</v>
+      </c>
+      <c r="D46" s="44">
+        <v>11.62</v>
+      </c>
+      <c r="E46" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F46" s="43">
+        <v>4.8402777777777774E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="41">
+        <v>47</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="43">
+        <v>0.53282407407407406</v>
+      </c>
+      <c r="D47" s="44">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E47" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F47" s="43">
+        <v>3.9756944444444449E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41">
+        <v>48</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="43">
+        <v>0.57259259259259265</v>
+      </c>
+      <c r="D48" s="44">
+        <v>6.26</v>
+      </c>
+      <c r="E48" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F48" s="43">
+        <v>2.6076388888888885E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>